--- a/Subscription_Tracker_User_Guide.xlsx
+++ b/Subscription_Tracker_User_Guide.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -486,17 +486,17 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>What is Subscription Tracker?</v>
+        <v>Getting Started:</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Subscription Tracker is a comprehensive platform designed to help businesses manage their subscriptions,</v>
+        <v>By clicking the link below, you can access the Subscription Tracker platform to login or sign up:</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>track expenses, handle compliance, and maintain payment methods efficiently.</v>
+        <v>🔗 https://subscription-management-6uje.onrender.com</v>
       </c>
     </row>
     <row r="19">
@@ -506,87 +506,87 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Key Features:</v>
+        <v>What is Subscription Tracker?</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>• Multi-tenant architecture - Each company has isolated data</v>
+        <v>Subscription Tracker is a comprehensive platform designed to help businesses manage their subscriptions,</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>• Subscription management with automatic reminders</v>
+        <v>track expenses, handle compliance, and maintain payment methods efficiently.</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>• Payment method tracking</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>• Currency management and conversion</v>
+        <v>Key Features:</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>• Compliance and government license tracking</v>
+        <v>• Multi-tenant architecture - Each company has isolated data</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>• User management and role-based access</v>
+        <v>• Subscription management with automatic reminders</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>• Advanced reporting and analytics</v>
+        <v>• Payment method tracking</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v/>
+        <v>• Currency management and conversion</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>System Requirements:</v>
+        <v>• Compliance and government license tracking</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>• Modern web browser (Chrome, Firefox, Edge, Safari)</v>
+        <v>• User management and role-based access</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>• Internet connection</v>
+        <v>• Advanced reporting and analytics</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>• Valid business email address</v>
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v/>
+        <v>System Requirements:</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>═══════════════════════════════════════════════════════════════════════════════════</v>
+        <v>• Modern web browser (Chrome, Firefox, Edge, Safari)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v/>
+        <v>• Internet connection</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2. LOGIN &amp; SIGNUP PROCESS</v>
+        <v>• Valid business email address</v>
       </c>
     </row>
     <row r="37">
@@ -596,17 +596,17 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>───────────────────────────────────────────────────────────────────────────────────</v>
+        <v>═══════════════════════════════════════════════════════════════════════════════════</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>SIGNUP PROCESS (New Users)</v>
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>───────────────────────────────────────────────────────────────────────────────────</v>
+        <v>2. LOGIN &amp; SIGNUP PROCESS</v>
       </c>
     </row>
     <row r="41">
@@ -616,167 +616,167 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Step 1: Fill in Your Details</v>
+        <v>───────────────────────────────────────────────────────────────────────────────────</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Navigate to the signup page and enter:</v>
+        <v>SIGNUP PROCESS (New Users)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v/>
+        <v>───────────────────────────────────────────────────────────────────────────────────</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v xml:space="preserve">   Field                   Requirements</v>
+        <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v xml:space="preserve">   ─────────────────────  ──────────────────────────────────────────────────────</v>
+        <v>Step 1: Fill in Your Details</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v xml:space="preserve">   Full Name              Your complete name</v>
+        <v>Navigate to the signup page and enter:</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v xml:space="preserve">   Email                  Valid email address (will be verified)</v>
+        <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v xml:space="preserve">   Password               Must meet security requirements:</v>
+        <v xml:space="preserve">   Field                   Requirements</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v xml:space="preserve">                          • Minimum 8 characters</v>
+        <v xml:space="preserve">   ─────────────────────  ──────────────────────────────────────────────────────</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v xml:space="preserve">                          • At least one uppercase letter (A-Z)</v>
+        <v xml:space="preserve">   Full Name              Your complete name</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v xml:space="preserve">                          • At least one lowercase letter (a-z)</v>
+        <v xml:space="preserve">   Email                  Valid email address (will be verified)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v xml:space="preserve">                          • At least one number (0-9)</v>
+        <v xml:space="preserve">   Password               Must meet security requirements:</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v xml:space="preserve">                          • At least one special character (!@#$%^&amp;*)</v>
+        <v xml:space="preserve">                          • Minimum 8 characters</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v xml:space="preserve">   Confirm Password       Must match the password exactly</v>
+        <v xml:space="preserve">                          • At least one uppercase letter (A-Z)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v/>
+        <v xml:space="preserve">                          • At least one lowercase letter (a-z)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v xml:space="preserve">   Example valid password: MySecure@Pass123</v>
+        <v xml:space="preserve">                          • At least one number (0-9)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v/>
+        <v xml:space="preserve">                          • At least one special character (!@#$%^&amp;*)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Step 2: Email Verification (OTP)</v>
+        <v xml:space="preserve">   Confirm Password       Must match the password exactly</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>After clicking "Send OTP":</v>
+        <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v xml:space="preserve">   1. A 6-digit OTP will be sent to your email</v>
+        <v xml:space="preserve">   Example valid password: MySecure@Pass123</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v xml:space="preserve">   2. Check your inbox (and spam folder if needed)</v>
+        <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v xml:space="preserve">   3. Enter the 6-digit code in the verification screen</v>
+        <v>Step 2: Email Verification (OTP)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v xml:space="preserve">   4. OTP expires in 10 minutes</v>
+        <v>After clicking "Send OTP":</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v xml:space="preserve">   5. Click "Verify OTP &amp; Sign Up"</v>
+        <v xml:space="preserve">   1. A 6-digit OTP will be sent to your email</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v/>
+        <v xml:space="preserve">   2. Check your inbox (and spam folder if needed)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Step 3: Account Creation</v>
+        <v xml:space="preserve">   3. Enter the 6-digit code in the verification screen</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v xml:space="preserve">   • Your account is automatically created after OTP verification</v>
+        <v xml:space="preserve">   4. OTP expires in 10 minutes</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v xml:space="preserve">   • You will be redirected to the login page</v>
+        <v xml:space="preserve">   5. Click "Verify OTP &amp; Sign Up"</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v xml:space="preserve">   • Use your email and password to log in</v>
+        <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v/>
+        <v>Step 3: Account Creation</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>───────────────────────────────────────────────────────────────────────────────────</v>
+        <v xml:space="preserve">   • Your account is automatically created after OTP verification</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>LOGIN PROCESS (Existing Users)</v>
+        <v xml:space="preserve">   • You will be redirected to the login page</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>───────────────────────────────────────────────────────────────────────────────────</v>
+        <v xml:space="preserve">   • Use your email and password to log in</v>
       </c>
     </row>
     <row r="75">
@@ -786,47 +786,47 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>1. Navigate to the login page</v>
+        <v>───────────────────────────────────────────────────────────────────────────────────</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2. Enter your registered email address</v>
+        <v>LOGIN PROCESS (Existing Users)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>3. Enter your password</v>
+        <v>───────────────────────────────────────────────────────────────────────────────────</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>4. Click "Login"</v>
+        <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>5. You will be directed to the Dashboard</v>
+        <v>1. Navigate to the login page</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v/>
+        <v>2. Enter your registered email address</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Forgot Password?</v>
+        <v>3. Enter your password</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v xml:space="preserve">   • Contact your system administrator</v>
+        <v>4. Click "Login"</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v xml:space="preserve">   • Password reset functionality can be implemented if needed</v>
+        <v>5. You will be directed to the Dashboard</v>
       </c>
     </row>
     <row r="85">
@@ -836,47 +836,47 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Security Features:</v>
+        <v>Forgot Password?</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v xml:space="preserve">   ✓ Passwords are encrypted with bcrypt</v>
+        <v xml:space="preserve">   • Contact your system administrator</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v xml:space="preserve">   ✓ Email verification prevents fake accounts</v>
+        <v xml:space="preserve">   • Password reset functionality can be implemented if needed</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v xml:space="preserve">   ✓ Session management with JWT tokens</v>
+        <v/>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v xml:space="preserve">   ✓ Automatic logout after 7 days</v>
+        <v>Security Features:</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v/>
+        <v xml:space="preserve">   ✓ Passwords are encrypted with bcrypt</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Troubleshooting:</v>
+        <v xml:space="preserve">   ✓ Email verification prevents fake accounts</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v xml:space="preserve">   Problem: "Invalid email or password"</v>
+        <v xml:space="preserve">   ✓ Session management with JWT tokens</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v xml:space="preserve">   Solution: Check credentials, ensure caps lock is off</v>
+        <v xml:space="preserve">   ✓ Automatic logout after 7 days</v>
       </c>
     </row>
     <row r="95">
@@ -886,37 +886,60 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v xml:space="preserve">   Problem: "Email not verified"</v>
+        <v>Troubleshooting:</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v xml:space="preserve">   Solution: Complete OTP verification during signup</v>
+        <v xml:space="preserve">   Problem: "Invalid email or password"</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v/>
+        <v xml:space="preserve">   Solution: Check credentials, ensure caps lock is off</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v xml:space="preserve">   Problem: OTP not received</v>
+        <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v xml:space="preserve">   Solution: Check spam folder, request new OTP, verify email address</v>
+        <v xml:space="preserve">   Problem: "Email not verified"</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
+        <v xml:space="preserve">   Solution: Complete OTP verification during signup</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v xml:space="preserve">   Problem: OTP not received</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v xml:space="preserve">   Solution: Check spam folder, request new OTP, verify email address</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1"/>
+  </hyperlinks>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A105"/>
   </ignoredErrors>
 </worksheet>
 </file>
